--- a/biology/Botanique/Gladiolus_murielae/Gladiolus_murielae.xlsx
+++ b/biology/Botanique/Gladiolus_murielae/Gladiolus_murielae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gladiolus murielae, le glaïeul d'Abyssinie, est une plante bulbeuse de la famille des Iridaceae.
 Le bulbe de ce glaïeul est en fait un corme, organe de réserve qui se développe au-dessus du corme de l'année précédente.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Afrique du Sud, le glaïeul d'Abyssinie est une plante bulbeuse d'été dont le feuillage atteint 40 à 50 centimètres de hauteur. Lors de la floraison, elle mesure facilement 1 mètre. Son port et sa feuille rappellent ceux des autres glaïeuls ; ses fleurs sont grandes, ouvertes, d'un blanc pur à gorge tachée de pourpre.
 La fleur est odorante de juin à août. Le parfum est très agréable.
@@ -547,7 +561,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Multiplication par plantation des bulbes et des bulbilles ; plantation en avril-mai.</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acidanthera bicolor Hochst.
 Acidanthera bicolor var. murielae
